--- a/Banco Central/10/Índice de percepción IPEC 2002 a 2021 - Mensual.xlsx
+++ b/Banco Central/10/Índice de percepción IPEC 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>Serie</t>
   </si>
@@ -731,6 +731,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6453,6 +6456,29 @@
         <v>33.4</v>
       </c>
     </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>239</v>
+      </c>
+      <c r="B234">
+        <v>35.5</v>
+      </c>
+      <c r="C234">
+        <v>38.3</v>
+      </c>
+      <c r="D234">
+        <v>45.3</v>
+      </c>
+      <c r="E234">
+        <v>30.4</v>
+      </c>
+      <c r="F234">
+        <v>37.5</v>
+      </c>
+      <c r="G234">
+        <v>37.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
